--- a/Test Data/Verify Voltage Drop Calculation on changing cable length and cable resistance.xlsx
+++ b/Test Data/Verify Voltage Drop Calculation on changing cable length and cable resistance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdhakaa\Documents\NG Consys Project\Testing\NGConsys Automation\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DDBB3C-CA78-42D8-BBD7-852B5881840E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770DAB93-ADF8-471D-B862-4CDA1BCBEE81}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="9024" xr2:uid="{909A8366-666E-4CCA-9776-5FB1A83C0292}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{909A8366-666E-4CCA-9776-5FB1A83C0292}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices Loop A" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t xml:space="preserve">Note: Do not change the column/rows index </t>
   </si>
@@ -127,6 +127,18 @@
   </si>
   <si>
     <t>0.30</t>
+  </si>
+  <si>
+    <t>Volt Drop (V)</t>
+  </si>
+  <si>
+    <t>Volt Drop (worst case)</t>
+  </si>
+  <si>
+    <t>Volt drop loading detail name</t>
+  </si>
+  <si>
+    <t>Volt drop worst case loading detail name</t>
   </si>
 </sst>
 </file>
@@ -223,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -232,10 +244,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -255,10 +263,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37698239-2F64-411E-8891-9071AB24FC45}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -592,93 +603,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="G1" s="21" t="s">
+      <c r="C1" s="9"/>
+      <c r="G1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="21"/>
+      <c r="H1" s="20"/>
       <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="9"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="E3" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="10" t="s">
         <v>23</v>
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="13" t="s">
+    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="12" t="s">
+      <c r="E4" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="10" t="s">
         <v>24</v>
       </c>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7"/>
+      <c r="H5" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -702,6 +723,12 @@
       <c r="G6" s="1">
         <v>0.47</v>
       </c>
+      <c r="H6" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -719,11 +746,17 @@
       <c r="E7" s="1">
         <v>300</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="19" t="s">
         <v>31</v>
       </c>
       <c r="G7" s="1">
         <v>0.55000000000000004</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -748,6 +781,12 @@
       <c r="G8" s="1">
         <v>0.61</v>
       </c>
+      <c r="H8" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -770,6 +809,12 @@
       </c>
       <c r="G9" s="1">
         <v>0.69</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/Verify Voltage Drop Calculation on changing cable length and cable resistance.xlsx
+++ b/Test Data/Verify Voltage Drop Calculation on changing cable length and cable resistance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770DAB93-ADF8-471D-B862-4CDA1BCBEE81}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE27A38-9BC0-45C9-A4D4-FB9A727A05CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{909A8366-666E-4CCA-9776-5FB1A83C0292}"/>
   </bookViews>
@@ -120,9 +120,6 @@
     <t>Verify Voltage Drop Calculation on changing cable length and cable resistance</t>
   </si>
   <si>
-    <t>NGC -1288</t>
-  </si>
-  <si>
     <t>verifyVoltageDropCalculation,ChangeCableLength,verifyVoltDropWorstCaseValue,verifyVoltDropValue</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
   </si>
   <si>
     <t>Volt drop worst case loading detail name</t>
+  </si>
+  <si>
+    <t>NGC -1288 and NGC-491/TC-127</t>
   </si>
 </sst>
 </file>
@@ -264,11 +264,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -586,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37698239-2F64-411E-8891-9071AB24FC45}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -610,10 +610,10 @@
         <v>28</v>
       </c>
       <c r="C1" s="9"/>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="20"/>
+      <c r="H1" s="21"/>
       <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
@@ -623,7 +623,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="9"/>
       <c r="G2" s="2"/>
@@ -637,7 +637,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>2</v>
@@ -645,8 +645,8 @@
       <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>32</v>
+      <c r="E3" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="10" t="s">
@@ -663,8 +663,8 @@
       <c r="D4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="21" t="s">
-        <v>33</v>
+      <c r="E4" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="10" t="s">
@@ -695,10 +695,10 @@
         <v>3</v>
       </c>
       <c r="H5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="15" t="s">
         <v>34</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -723,11 +723,11 @@
       <c r="G6" s="1">
         <v>0.47</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="20" t="s">
         <v>32</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -747,16 +747,16 @@
         <v>300</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="20" t="s">
         <v>32</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -776,16 +776,16 @@
         <v>310.60000000000002</v>
       </c>
       <c r="F8" s="1">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="G8" s="1">
         <v>0.61</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="20" t="s">
         <v>32</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -805,16 +805,16 @@
         <v>323.60000000000002</v>
       </c>
       <c r="F9" s="1">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="G9" s="1">
         <v>0.69</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="20" t="s">
         <v>32</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/Verify Voltage Drop Calculation on changing cable length and cable resistance.xlsx
+++ b/Test Data/Verify Voltage Drop Calculation on changing cable length and cable resistance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE27A38-9BC0-45C9-A4D4-FB9A727A05CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F18708-E012-46CE-9293-7AF4AAC3A012}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{909A8366-666E-4CCA-9776-5FB1A83C0292}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{909A8366-666E-4CCA-9776-5FB1A83C0292}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices Loop A" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t xml:space="preserve">Note: Do not change the column/rows index </t>
   </si>
@@ -123,9 +123,6 @@
     <t>verifyVoltageDropCalculation,ChangeCableLength,verifyVoltDropWorstCaseValue,verifyVoltDropValue</t>
   </si>
   <si>
-    <t>0.30</t>
-  </si>
-  <si>
     <t>Volt Drop (V)</t>
   </si>
   <si>
@@ -139,6 +136,27 @@
   </si>
   <si>
     <t>NGC -1288 and NGC-491/TC-127</t>
+  </si>
+  <si>
+    <t>Loop</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Built-in Loop-A</t>
+  </si>
+  <si>
+    <t>DCUnit</t>
+  </si>
+  <si>
+    <t>Built-in Loop-B</t>
+  </si>
+  <si>
+    <t>Built-in Loop-C</t>
+  </si>
+  <si>
+    <t>Built-in Loop-D</t>
   </si>
 </sst>
 </file>
@@ -169,7 +187,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,8 +212,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -231,11 +255,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -270,6 +307,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37698239-2F64-411E-8891-9071AB24FC45}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,9 +640,10 @@
     <col min="7" max="7" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.109375" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
@@ -617,8 +658,14 @@
       <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="J1" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>26</v>
       </c>
@@ -631,13 +678,22 @@
         <v>22</v>
       </c>
       <c r="I2" s="4"/>
+      <c r="J2" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="23">
+        <v>2</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>2</v>
@@ -646,15 +702,24 @@
         <v>16</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="10" t="s">
         <v>23</v>
       </c>
       <c r="I3" s="4"/>
+      <c r="J3" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="23">
+        <v>3</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="12"/>
       <c r="C4" s="11" t="s">
@@ -664,15 +729,24 @@
         <v>16</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="10" t="s">
         <v>24</v>
       </c>
       <c r="I4" s="4"/>
+      <c r="J4" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="23">
+        <v>4</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>5</v>
       </c>
@@ -695,13 +769,16 @@
         <v>3</v>
       </c>
       <c r="H5" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="15" t="s">
-        <v>34</v>
+      <c r="J5" s="24" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -715,22 +792,22 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="F6" s="1">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="G6" s="1">
-        <v>0.47</v>
+        <v>0.41</v>
       </c>
       <c r="H6" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="20" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -744,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>300</v>
-      </c>
-      <c r="F7" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="F7" s="19">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="H7" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="1">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H7" s="20" t="s">
+      <c r="I7" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="20" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
@@ -773,22 +850,22 @@
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>310.60000000000002</v>
+        <v>302</v>
       </c>
       <c r="F8" s="1">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="G8" s="1">
-        <v>0.61</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H8" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="20" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -802,19 +879,19 @@
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>323.60000000000002</v>
+        <v>315</v>
       </c>
       <c r="F9" s="1">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="G9" s="1">
-        <v>0.69</v>
+        <v>0.64</v>
       </c>
       <c r="H9" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="20" t="s">
         <v>31</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/Verify Voltage Drop Calculation on changing cable length and cable resistance.xlsx
+++ b/Test Data/Verify Voltage Drop Calculation on changing cable length and cable resistance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F18708-E012-46CE-9293-7AF4AAC3A012}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D180C57-5A60-4BC8-AB97-BFEA55434198}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{909A8366-666E-4CCA-9776-5FB1A83C0292}"/>
   </bookViews>
@@ -272,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -300,16 +300,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -627,7 +626,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -651,17 +650,17 @@
         <v>28</v>
       </c>
       <c r="C1" s="9"/>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="21"/>
+      <c r="H1" s="23"/>
       <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="20" t="s">
         <v>36</v>
       </c>
     </row>
@@ -678,13 +677,13 @@
         <v>22</v>
       </c>
       <c r="I2" s="4"/>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="23">
+      <c r="K2" s="21">
         <v>2</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="21" t="s">
         <v>38</v>
       </c>
     </row>
@@ -701,7 +700,7 @@
       <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="19" t="s">
         <v>30</v>
       </c>
       <c r="G3" s="5"/>
@@ -709,13 +708,13 @@
         <v>23</v>
       </c>
       <c r="I3" s="4"/>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="21">
         <v>3</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="19" t="s">
         <v>30</v>
       </c>
     </row>
@@ -728,7 +727,7 @@
       <c r="D4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>31</v>
       </c>
       <c r="G4" s="14"/>
@@ -736,13 +735,13 @@
         <v>24</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="21">
         <v>4</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="19" t="s">
         <v>31</v>
       </c>
     </row>
@@ -774,7 +773,7 @@
       <c r="I5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="22" t="s">
         <v>41</v>
       </c>
     </row>
@@ -800,10 +799,10 @@
       <c r="G6" s="1">
         <v>0.41</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="19" t="s">
         <v>31</v>
       </c>
     </row>
@@ -821,18 +820,18 @@
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>291</v>
-      </c>
-      <c r="F7" s="19">
-        <v>0.28000000000000003</v>
+        <v>279</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.24</v>
       </c>
       <c r="G7" s="1">
-        <v>0.49</v>
-      </c>
-      <c r="H7" s="20" t="s">
+        <v>0.42</v>
+      </c>
+      <c r="H7" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="19" t="s">
         <v>31</v>
       </c>
     </row>
@@ -850,18 +849,18 @@
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="F8" s="1">
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
       <c r="G8" s="1">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="H8" s="20" t="s">
+        <v>0.49</v>
+      </c>
+      <c r="H8" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="19" t="s">
         <v>31</v>
       </c>
     </row>
@@ -879,18 +878,18 @@
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="F9" s="1">
-        <v>0.35</v>
+        <v>0.31</v>
       </c>
       <c r="G9" s="1">
-        <v>0.64</v>
-      </c>
-      <c r="H9" s="20" t="s">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H9" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="19" t="s">
         <v>31</v>
       </c>
     </row>
